--- a/data/normal_operation/res_bus/va_degree.xlsx
+++ b/data/normal_operation/res_bus/va_degree.xlsx
@@ -470,28 +470,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14.34020113782661</v>
+        <v>14.08956931709669</v>
       </c>
       <c r="D2" t="n">
-        <v>11.115200353438</v>
+        <v>10.78039253768644</v>
       </c>
       <c r="E2" t="n">
-        <v>4.794806763866301</v>
+        <v>4.614876640070683</v>
       </c>
       <c r="F2" t="n">
-        <v>6.729297957881565</v>
+        <v>6.38991833568631</v>
       </c>
       <c r="G2" t="n">
-        <v>9.265220182853724</v>
+        <v>8.9495557400633</v>
       </c>
       <c r="H2" t="n">
-        <v>9.933545253915746</v>
+        <v>9.656931465499721</v>
       </c>
       <c r="I2" t="n">
-        <v>10.66651128449639</v>
+        <v>10.42607522758762</v>
       </c>
       <c r="J2" t="n">
-        <v>7.700856240982948</v>
+        <v>7.504272120850582</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14.67539460883231</v>
+        <v>14.21401978994457</v>
       </c>
       <c r="D3" t="n">
-        <v>11.48775182738708</v>
+        <v>10.91910151743641</v>
       </c>
       <c r="E3" t="n">
-        <v>5.021346180654773</v>
+        <v>4.679876688536298</v>
       </c>
       <c r="F3" t="n">
-        <v>7.099889932114857</v>
+        <v>6.496307993052758</v>
       </c>
       <c r="G3" t="n">
-        <v>9.627241063030851</v>
+        <v>9.079578830931844</v>
       </c>
       <c r="H3" t="n">
-        <v>10.27789359452381</v>
+        <v>9.802282885125116</v>
       </c>
       <c r="I3" t="n">
-        <v>10.99533877923839</v>
+        <v>10.54525158365799</v>
       </c>
       <c r="J3" t="n">
-        <v>8.009032661779214</v>
+        <v>7.592534803409127</v>
       </c>
     </row>
     <row r="4">
@@ -534,28 +534,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>14.32371297365166</v>
+        <v>15.22988328318267</v>
       </c>
       <c r="D4" t="n">
-        <v>11.06997194637629</v>
+        <v>12.21984346660288</v>
       </c>
       <c r="E4" t="n">
-        <v>4.759253848519521</v>
+        <v>5.4343318697073</v>
       </c>
       <c r="F4" t="n">
-        <v>6.648600412254438</v>
+        <v>7.869765541764788</v>
       </c>
       <c r="G4" t="n">
-        <v>9.226128771115059</v>
+        <v>10.33517124132799</v>
       </c>
       <c r="H4" t="n">
-        <v>9.940102218909185</v>
+        <v>10.90539413918462</v>
       </c>
       <c r="I4" t="n">
-        <v>10.65674630787385</v>
+        <v>11.54392244840103</v>
       </c>
       <c r="J4" t="n">
-        <v>7.678747407440287</v>
+        <v>8.473853597058849</v>
       </c>
     </row>
     <row r="5">
@@ -566,28 +566,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>14.90279443721911</v>
+        <v>14.3528934514592</v>
       </c>
       <c r="D5" t="n">
-        <v>11.853158288634</v>
+        <v>11.06158308829633</v>
       </c>
       <c r="E5" t="n">
-        <v>5.213080511469387</v>
+        <v>4.76449483639558</v>
       </c>
       <c r="F5" t="n">
-        <v>7.502708311154279</v>
+        <v>6.62847077018879</v>
       </c>
       <c r="G5" t="n">
-        <v>9.979050103369731</v>
+        <v>9.218987554389615</v>
       </c>
       <c r="H5" t="n">
-        <v>10.56926485696344</v>
+        <v>9.946740461762555</v>
       </c>
       <c r="I5" t="n">
-        <v>11.22561006133031</v>
+        <v>10.67892284813938</v>
       </c>
       <c r="J5" t="n">
-        <v>8.179893528519404</v>
+        <v>7.712194414424571</v>
       </c>
     </row>
     <row r="6">
@@ -598,28 +598,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>14.22533491178237</v>
+        <v>14.37009608044669</v>
       </c>
       <c r="D6" t="n">
-        <v>10.97812260450563</v>
+        <v>11.16856237148752</v>
       </c>
       <c r="E6" t="n">
-        <v>4.716227386131655</v>
+        <v>4.806158080668216</v>
       </c>
       <c r="F6" t="n">
-        <v>6.594440592347205</v>
+        <v>6.764061591858062</v>
       </c>
       <c r="G6" t="n">
-        <v>9.132067417302952</v>
+        <v>9.314766897928429</v>
       </c>
       <c r="H6" t="n">
-        <v>9.804306774375828</v>
+        <v>9.993584451066642</v>
       </c>
       <c r="I6" t="n">
-        <v>10.55213896414108</v>
+        <v>10.69740802717927</v>
       </c>
       <c r="J6" t="n">
-        <v>7.601305509772399</v>
+        <v>7.702048504349389</v>
       </c>
     </row>
     <row r="7">
@@ -630,28 +630,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.63774924561709</v>
+        <v>14.64635761589136</v>
       </c>
       <c r="D7" t="n">
-        <v>11.49011571874082</v>
+        <v>11.49994874002094</v>
       </c>
       <c r="E7" t="n">
-        <v>4.995773568169918</v>
+        <v>4.993053233568342</v>
       </c>
       <c r="F7" t="n">
-        <v>7.096567668055597</v>
+        <v>7.093733718543094</v>
       </c>
       <c r="G7" t="n">
-        <v>9.634701049151346</v>
+        <v>9.635706294815272</v>
       </c>
       <c r="H7" t="n">
-        <v>10.30064335067725</v>
+        <v>10.29701457106455</v>
       </c>
       <c r="I7" t="n">
-        <v>10.96834565518287</v>
+        <v>10.9664786559696</v>
       </c>
       <c r="J7" t="n">
-        <v>7.93935062244728</v>
+        <v>7.931248368895278</v>
       </c>
     </row>
     <row r="8">
@@ -662,28 +662,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>14.27872559859449</v>
+        <v>14.9922430143159</v>
       </c>
       <c r="D8" t="n">
-        <v>10.97234829841669</v>
+        <v>11.94911073080138</v>
       </c>
       <c r="E8" t="n">
-        <v>4.720979094480539</v>
+        <v>5.266325872505496</v>
       </c>
       <c r="F8" t="n">
-        <v>6.548482613852042</v>
+        <v>7.588759761396597</v>
       </c>
       <c r="G8" t="n">
-        <v>9.130391506712746</v>
+        <v>10.07687736774812</v>
       </c>
       <c r="H8" t="n">
-        <v>9.850262662030957</v>
+        <v>10.68012429163505</v>
       </c>
       <c r="I8" t="n">
-        <v>10.60501440806585</v>
+        <v>11.31804712220701</v>
       </c>
       <c r="J8" t="n">
-        <v>7.661213213810997</v>
+        <v>8.255616764782548</v>
       </c>
     </row>
     <row r="9">
@@ -694,28 +694,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>14.44127119614969</v>
+        <v>14.35259921474883</v>
       </c>
       <c r="D9" t="n">
-        <v>11.20302145672569</v>
+        <v>11.08493683435825</v>
       </c>
       <c r="E9" t="n">
-        <v>4.859011391343572</v>
+        <v>4.772628942246679</v>
       </c>
       <c r="F9" t="n">
-        <v>6.81397012110591</v>
+        <v>6.657197473534684</v>
       </c>
       <c r="G9" t="n">
-        <v>9.350000953369427</v>
+        <v>9.242551924571275</v>
       </c>
       <c r="H9" t="n">
-        <v>10.01537503492679</v>
+        <v>9.965541336298861</v>
       </c>
       <c r="I9" t="n">
-        <v>10.76281265737058</v>
+        <v>10.68526295265548</v>
       </c>
       <c r="J9" t="n">
-        <v>7.808086553176024</v>
+        <v>7.71025947911285</v>
       </c>
     </row>
     <row r="10">
@@ -726,28 +726,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>14.40477272159674</v>
+        <v>14.7675597972311</v>
       </c>
       <c r="D10" t="n">
-        <v>11.17445680904298</v>
+        <v>11.6620599726978</v>
       </c>
       <c r="E10" t="n">
-        <v>4.831678832038448</v>
+        <v>5.102807534530184</v>
       </c>
       <c r="F10" t="n">
-        <v>6.776156118533779</v>
+        <v>7.287052870529953</v>
       </c>
       <c r="G10" t="n">
-        <v>9.32345490387786</v>
+        <v>9.792358974368529</v>
       </c>
       <c r="H10" t="n">
-        <v>10.0015150014368</v>
+        <v>10.41393682268474</v>
       </c>
       <c r="I10" t="n">
-        <v>10.7331451050687</v>
+        <v>11.09138020639253</v>
       </c>
       <c r="J10" t="n">
-        <v>7.766781893979777</v>
+        <v>8.066885015006479</v>
       </c>
     </row>
     <row r="11">
@@ -758,28 +758,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>15.1979821368504</v>
+        <v>14.97577500341814</v>
       </c>
       <c r="D11" t="n">
-        <v>12.18871965112174</v>
+        <v>11.90477634292016</v>
       </c>
       <c r="E11" t="n">
-        <v>5.412739542156452</v>
+        <v>5.246226541674615</v>
       </c>
       <c r="F11" t="n">
-        <v>7.83217125770996</v>
+        <v>7.533694314005061</v>
       </c>
       <c r="G11" t="n">
-        <v>10.3028743024371</v>
+        <v>10.02870018759909</v>
       </c>
       <c r="H11" t="n">
-        <v>10.87715853760385</v>
+        <v>10.63550604532472</v>
       </c>
       <c r="I11" t="n">
-        <v>11.51613395188755</v>
+        <v>11.29405472482058</v>
       </c>
       <c r="J11" t="n">
-        <v>8.448635322947187</v>
+        <v>8.247302130953914</v>
       </c>
     </row>
     <row r="12">
@@ -790,28 +790,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>15.00139893990386</v>
+        <v>13.94688957067734</v>
       </c>
       <c r="D12" t="n">
-        <v>12.00306951661628</v>
+        <v>10.61076731828488</v>
       </c>
       <c r="E12" t="n">
-        <v>5.295806379997642</v>
+        <v>4.514364722674082</v>
       </c>
       <c r="F12" t="n">
-        <v>7.670180057432774</v>
+        <v>6.213822655407775</v>
       </c>
       <c r="G12" t="n">
-        <v>10.12556952700722</v>
+        <v>8.779598479819873</v>
       </c>
       <c r="H12" t="n">
-        <v>10.69221843410817</v>
+        <v>9.492448467973787</v>
       </c>
       <c r="I12" t="n">
-        <v>11.32715163111395</v>
+        <v>10.28129963200919</v>
       </c>
       <c r="J12" t="n">
-        <v>8.261563581597615</v>
+        <v>7.377665438495358</v>
       </c>
     </row>
     <row r="13">
@@ -822,28 +822,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>14.3200814338532</v>
+        <v>14.82851549266607</v>
       </c>
       <c r="D13" t="n">
-        <v>11.05218199202598</v>
+        <v>11.69352613819599</v>
       </c>
       <c r="E13" t="n">
-        <v>4.776946525970842</v>
+        <v>5.141254299486891</v>
       </c>
       <c r="F13" t="n">
-        <v>6.666513147312644</v>
+        <v>7.322642133021527</v>
       </c>
       <c r="G13" t="n">
-        <v>9.211701543005246</v>
+        <v>9.82887140925865</v>
       </c>
       <c r="H13" t="n">
-        <v>9.896813725041893</v>
+        <v>10.45623374515211</v>
       </c>
       <c r="I13" t="n">
-        <v>10.65213935682836</v>
+        <v>11.15167859908746</v>
       </c>
       <c r="J13" t="n">
-        <v>7.713010606613411</v>
+        <v>8.145803769164619</v>
       </c>
     </row>
     <row r="14">
@@ -854,28 +854,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>14.58148796719248</v>
+        <v>14.4700085325262</v>
       </c>
       <c r="D14" t="n">
-        <v>11.40008636144105</v>
+        <v>11.27888412959708</v>
       </c>
       <c r="E14" t="n">
-        <v>4.953744564721022</v>
+        <v>4.888461399991725</v>
       </c>
       <c r="F14" t="n">
-        <v>7.003344061836614</v>
+        <v>6.89744388202998</v>
       </c>
       <c r="G14" t="n">
-        <v>9.546704508316619</v>
+        <v>9.42237239875227</v>
       </c>
       <c r="H14" t="n">
-        <v>10.21952420951458</v>
+        <v>10.07384929963954</v>
       </c>
       <c r="I14" t="n">
-        <v>10.91126866502407</v>
+        <v>10.79431264056391</v>
       </c>
       <c r="J14" t="n">
-        <v>7.906046444391796</v>
+        <v>7.813993792877918</v>
       </c>
     </row>
     <row r="15">
@@ -886,28 +886,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>14.44441569109298</v>
+        <v>14.2796134465296</v>
       </c>
       <c r="D15" t="n">
-        <v>11.21132071100799</v>
+        <v>11.01811018636175</v>
       </c>
       <c r="E15" t="n">
-        <v>4.856815563233967</v>
+        <v>4.737420586011347</v>
       </c>
       <c r="F15" t="n">
-        <v>6.81221461817479</v>
+        <v>6.612607721057662</v>
       </c>
       <c r="G15" t="n">
-        <v>9.356894969122179</v>
+        <v>9.175372188001868</v>
       </c>
       <c r="H15" t="n">
-        <v>10.02972460686544</v>
+        <v>9.875336965982884</v>
       </c>
       <c r="I15" t="n">
-        <v>10.76744201821373</v>
+        <v>10.61001055835507</v>
       </c>
       <c r="J15" t="n">
-        <v>7.803755785026494</v>
+        <v>7.648430901729836</v>
       </c>
     </row>
     <row r="16">
@@ -918,28 +918,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>14.39652361707231</v>
+        <v>14.97715914306953</v>
       </c>
       <c r="D16" t="n">
-        <v>11.15879977422911</v>
+        <v>11.89082937755106</v>
       </c>
       <c r="E16" t="n">
-        <v>4.823735287174093</v>
+        <v>5.248275534247876</v>
       </c>
       <c r="F16" t="n">
-        <v>6.761326630909143</v>
+        <v>7.524844294814368</v>
       </c>
       <c r="G16" t="n">
-        <v>9.31051852108158</v>
+        <v>10.02022996131223</v>
       </c>
       <c r="H16" t="n">
-        <v>9.992484307861144</v>
+        <v>10.6312428420123</v>
       </c>
       <c r="I16" t="n">
-        <v>10.72434478468427</v>
+        <v>11.29979473969917</v>
       </c>
       <c r="J16" t="n">
-        <v>7.75795951233257</v>
+        <v>8.265657683910328</v>
       </c>
     </row>
     <row r="17">
@@ -950,28 +950,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>14.12081699371055</v>
+        <v>14.72363612166472</v>
       </c>
       <c r="D17" t="n">
-        <v>10.79512287320889</v>
+        <v>11.60289912144198</v>
       </c>
       <c r="E17" t="n">
-        <v>4.625176491564892</v>
+        <v>5.071713856934195</v>
       </c>
       <c r="F17" t="n">
-        <v>6.393241925951736</v>
+        <v>7.233756634848612</v>
       </c>
       <c r="G17" t="n">
-        <v>8.962312053824279</v>
+        <v>9.738576392962637</v>
       </c>
       <c r="H17" t="n">
-        <v>9.677027523164753</v>
+        <v>10.36404506740195</v>
       </c>
       <c r="I17" t="n">
-        <v>10.45114435370525</v>
+        <v>11.04644419716667</v>
       </c>
       <c r="J17" t="n">
-        <v>7.530059580158459</v>
+        <v>8.026756283198385</v>
       </c>
     </row>
     <row r="18">
@@ -982,28 +982,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>14.05055893405824</v>
+        <v>14.22545362109306</v>
       </c>
       <c r="D18" t="n">
-        <v>10.72972830981266</v>
+        <v>11.02641048840106</v>
       </c>
       <c r="E18" t="n">
-        <v>4.561842887444252</v>
+        <v>4.740151303633296</v>
       </c>
       <c r="F18" t="n">
-        <v>6.296804208648481</v>
+        <v>6.669254745381179</v>
       </c>
       <c r="G18" t="n">
-        <v>8.891330769116967</v>
+        <v>9.177423946019392</v>
       </c>
       <c r="H18" t="n">
-        <v>9.625625003548899</v>
+        <v>9.818930055463802</v>
       </c>
       <c r="I18" t="n">
-        <v>10.37986991142706</v>
+        <v>10.55647026791824</v>
       </c>
       <c r="J18" t="n">
-        <v>7.437003650995918</v>
+        <v>7.598396183424426</v>
       </c>
     </row>
     <row r="19">
@@ -1014,28 +1014,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>14.58687024121452</v>
+        <v>14.76500739276945</v>
       </c>
       <c r="D19" t="n">
-        <v>11.35625483291715</v>
+        <v>11.59327576149248</v>
       </c>
       <c r="E19" t="n">
-        <v>4.948988903733332</v>
+        <v>5.07132767428606</v>
       </c>
       <c r="F19" t="n">
-        <v>6.954188267415571</v>
+        <v>7.18926165755671</v>
       </c>
       <c r="G19" t="n">
-        <v>9.505393202497453</v>
+        <v>9.733436572768639</v>
       </c>
       <c r="H19" t="n">
-        <v>10.18769923380034</v>
+        <v>10.40148705059799</v>
       </c>
       <c r="I19" t="n">
-        <v>10.9135210381204</v>
+        <v>11.08724823697536</v>
       </c>
       <c r="J19" t="n">
-        <v>7.940464403214502</v>
+        <v>8.070700075425595</v>
       </c>
     </row>
     <row r="20">
@@ -1046,28 +1046,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>15.1926895701964</v>
+        <v>14.94098874951721</v>
       </c>
       <c r="D20" t="n">
-        <v>12.15964021662802</v>
+        <v>11.84271253155868</v>
       </c>
       <c r="E20" t="n">
-        <v>5.387791662557848</v>
+        <v>5.219064732736232</v>
       </c>
       <c r="F20" t="n">
-        <v>7.777772769646229</v>
+        <v>7.470407206016371</v>
       </c>
       <c r="G20" t="n">
-        <v>10.28109623987261</v>
+        <v>9.973177423406412</v>
       </c>
       <c r="H20" t="n">
-        <v>10.89399605253177</v>
+        <v>10.59222396536197</v>
       </c>
       <c r="I20" t="n">
-        <v>11.51390851383099</v>
+        <v>11.26383534606653</v>
       </c>
       <c r="J20" t="n">
-        <v>8.429825265989631</v>
+        <v>8.232823085142526</v>
       </c>
     </row>
     <row r="21">
@@ -1078,28 +1078,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>14.26466261846807</v>
+        <v>14.89122946035501</v>
       </c>
       <c r="D21" t="n">
-        <v>11.0431510175916</v>
+        <v>11.76732145163676</v>
       </c>
       <c r="E21" t="n">
-        <v>4.751180809852833</v>
+        <v>5.162843683715443</v>
       </c>
       <c r="F21" t="n">
-        <v>6.666796678666867</v>
+        <v>7.367522482073777</v>
       </c>
       <c r="G21" t="n">
-        <v>9.202384840314219</v>
+        <v>9.90211589945247</v>
       </c>
       <c r="H21" t="n">
-        <v>9.878194692497269</v>
+        <v>10.55609524773953</v>
       </c>
       <c r="I21" t="n">
-        <v>10.60274046681536</v>
+        <v>11.21320255142911</v>
       </c>
       <c r="J21" t="n">
-        <v>7.636795056842684</v>
+        <v>8.16722871858946</v>
       </c>
     </row>
     <row r="22">
@@ -1110,28 +1110,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>14.52065469310648</v>
+        <v>14.38292667442238</v>
       </c>
       <c r="D22" t="n">
-        <v>11.36107539124371</v>
+        <v>11.14132215653561</v>
       </c>
       <c r="E22" t="n">
-        <v>4.93265465213332</v>
+        <v>4.829488242719232</v>
       </c>
       <c r="F22" t="n">
-        <v>6.991828351980569</v>
+        <v>6.765412428232306</v>
       </c>
       <c r="G22" t="n">
-        <v>9.504281668889675</v>
+        <v>9.296141398140577</v>
       </c>
       <c r="H22" t="n">
-        <v>10.14346317592871</v>
+        <v>9.963371509995289</v>
       </c>
       <c r="I22" t="n">
-        <v>10.84765284019514</v>
+        <v>10.71467752306185</v>
       </c>
       <c r="J22" t="n">
-        <v>7.852921792359455</v>
+        <v>7.771218633287113</v>
       </c>
     </row>
     <row r="23">
@@ -1142,28 +1142,28 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>14.70968522574532</v>
+        <v>14.38641099075268</v>
       </c>
       <c r="D23" t="n">
-        <v>11.59272893186194</v>
+        <v>11.16725565097554</v>
       </c>
       <c r="E23" t="n">
-        <v>5.074496227809556</v>
+        <v>4.810861082308882</v>
       </c>
       <c r="F23" t="n">
-        <v>7.241962368734293</v>
+        <v>6.758507979349819</v>
       </c>
       <c r="G23" t="n">
-        <v>9.730202396643994</v>
+        <v>9.31898152377577</v>
       </c>
       <c r="H23" t="n">
-        <v>10.34117339677186</v>
+        <v>10.01201236755887</v>
       </c>
       <c r="I23" t="n">
-        <v>11.03421229263309</v>
+        <v>10.71615719627737</v>
       </c>
       <c r="J23" t="n">
-        <v>8.026813072006536</v>
+        <v>7.723039206017377</v>
       </c>
     </row>
     <row r="24">
@@ -1174,28 +1174,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>13.9135760026357</v>
+        <v>14.10425580039361</v>
       </c>
       <c r="D24" t="n">
-        <v>10.59231335757434</v>
+        <v>10.79669061504796</v>
       </c>
       <c r="E24" t="n">
-        <v>4.479145532033767</v>
+        <v>4.603765146782091</v>
       </c>
       <c r="F24" t="n">
-        <v>6.174327974297042</v>
+        <v>6.372651628774509</v>
       </c>
       <c r="G24" t="n">
-        <v>8.759546654721442</v>
+        <v>8.962135024232948</v>
       </c>
       <c r="H24" t="n">
-        <v>9.489849231489714</v>
+        <v>9.694992269321496</v>
       </c>
       <c r="I24" t="n">
-        <v>10.24748195049272</v>
+        <v>10.43859059222818</v>
       </c>
       <c r="J24" t="n">
-        <v>7.311740032766565</v>
+        <v>7.488750703714118</v>
       </c>
     </row>
     <row r="25">
@@ -1206,28 +1206,28 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>14.93067032136273</v>
+        <v>14.43742171382363</v>
       </c>
       <c r="D25" t="n">
-        <v>11.85724215452731</v>
+        <v>11.17455625163323</v>
       </c>
       <c r="E25" t="n">
-        <v>5.214220153068641</v>
+        <v>4.84023448470558</v>
       </c>
       <c r="F25" t="n">
-        <v>7.483261331414516</v>
+        <v>6.762053648199346</v>
       </c>
       <c r="G25" t="n">
-        <v>9.984248383223907</v>
+        <v>9.326959321004333</v>
       </c>
       <c r="H25" t="n">
-        <v>10.59873042807743</v>
+        <v>10.02519677047046</v>
       </c>
       <c r="I25" t="n">
-        <v>11.25335081505491</v>
+        <v>10.76508397377436</v>
       </c>
       <c r="J25" t="n">
-        <v>8.204938912063557</v>
+        <v>7.80672711374373</v>
       </c>
     </row>
     <row r="26">
@@ -1238,28 +1238,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>14.92755082834643</v>
+        <v>15.26638350479207</v>
       </c>
       <c r="D26" t="n">
-        <v>11.82776234946002</v>
+        <v>12.26237377024194</v>
       </c>
       <c r="E26" t="n">
-        <v>5.197680000759832</v>
+        <v>5.456073009723807</v>
       </c>
       <c r="F26" t="n">
-        <v>7.436452496086517</v>
+        <v>7.906705912173875</v>
       </c>
       <c r="G26" t="n">
-        <v>9.958761975526288</v>
+        <v>10.37728534898621</v>
       </c>
       <c r="H26" t="n">
-        <v>10.5976558443562</v>
+        <v>10.95215017359206</v>
       </c>
       <c r="I26" t="n">
-        <v>11.25139265797694</v>
+        <v>11.58161466242976</v>
       </c>
       <c r="J26" t="n">
-        <v>8.203033589776611</v>
+        <v>8.502985965494329</v>
       </c>
     </row>
     <row r="27">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>14.72378014195082</v>
+        <v>14.32458884540435</v>
       </c>
       <c r="D27" t="n">
-        <v>11.6342095295866</v>
+        <v>11.0822300972526</v>
       </c>
       <c r="E27" t="n">
-        <v>5.0746206611752</v>
+        <v>4.763731371255083</v>
       </c>
       <c r="F27" t="n">
-        <v>7.264014653061134</v>
+        <v>6.668182909128436</v>
       </c>
       <c r="G27" t="n">
-        <v>9.767266561119857</v>
+        <v>9.236191581617655</v>
       </c>
       <c r="H27" t="n">
-        <v>10.38940836938824</v>
+        <v>9.938744901466208</v>
       </c>
       <c r="I27" t="n">
-        <v>11.04779327065113</v>
+        <v>10.65363879109408</v>
       </c>
       <c r="J27" t="n">
-        <v>8.004833758574835</v>
+        <v>7.671185084912627</v>
       </c>
     </row>
     <row r="28">
@@ -1302,28 +1302,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>14.63411488154554</v>
+        <v>14.57035047206604</v>
       </c>
       <c r="D28" t="n">
-        <v>11.4729543313161</v>
+        <v>11.36727314613107</v>
       </c>
       <c r="E28" t="n">
-        <v>5.012831842027223</v>
+        <v>4.953488416090224</v>
       </c>
       <c r="F28" t="n">
-        <v>7.108465010880537</v>
+        <v>6.983323211200809</v>
       </c>
       <c r="G28" t="n">
-        <v>9.616322501582289</v>
+        <v>9.511478648291275</v>
       </c>
       <c r="H28" t="n">
-        <v>10.25149622976288</v>
+        <v>10.16755597841933</v>
       </c>
       <c r="I28" t="n">
-        <v>10.96315376984726</v>
+        <v>10.89502891343585</v>
       </c>
       <c r="J28" t="n">
-        <v>7.977480808290767</v>
+        <v>7.92257934390339</v>
       </c>
     </row>
     <row r="29">
@@ -1334,28 +1334,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>14.34807942476661</v>
+        <v>14.63041803152136</v>
       </c>
       <c r="D29" t="n">
-        <v>11.1567548081188</v>
+        <v>11.48849272060204</v>
       </c>
       <c r="E29" t="n">
-        <v>4.816647726901865</v>
+        <v>4.996714451616827</v>
       </c>
       <c r="F29" t="n">
-        <v>6.78756688386967</v>
+        <v>7.101908957764318</v>
       </c>
       <c r="G29" t="n">
-        <v>9.301831683166165</v>
+        <v>9.622044277368628</v>
       </c>
       <c r="H29" t="n">
-        <v>9.944202203785906</v>
+        <v>10.26032041912912</v>
       </c>
       <c r="I29" t="n">
-        <v>10.67581028382602</v>
+        <v>10.94908840534264</v>
       </c>
       <c r="J29" t="n">
-        <v>7.709042653638994</v>
+        <v>7.932549741220396</v>
       </c>
     </row>
     <row r="30">
@@ -1366,28 +1366,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>14.51654205015654</v>
+        <v>14.74081785952604</v>
       </c>
       <c r="D30" t="n">
-        <v>11.27719535273844</v>
+        <v>11.61674733409721</v>
       </c>
       <c r="E30" t="n">
-        <v>4.902132935302771</v>
+        <v>5.088465240671433</v>
       </c>
       <c r="F30" t="n">
-        <v>6.876073136342947</v>
+        <v>7.256984354835833</v>
       </c>
       <c r="G30" t="n">
-        <v>9.424569107432427</v>
+        <v>9.754076960953428</v>
       </c>
       <c r="H30" t="n">
-        <v>10.10244621218326</v>
+        <v>10.37387358000717</v>
       </c>
       <c r="I30" t="n">
-        <v>10.84016601945298</v>
+        <v>11.06405013193637</v>
       </c>
       <c r="J30" t="n">
-        <v>7.87683681339421</v>
+        <v>8.05306634545193</v>
       </c>
     </row>
     <row r="31">
@@ -1398,28 +1398,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>13.98881944247978</v>
+        <v>14.97328242540362</v>
       </c>
       <c r="D31" t="n">
-        <v>10.70565204638474</v>
+        <v>11.92414935462918</v>
       </c>
       <c r="E31" t="n">
-        <v>4.553884729551606</v>
+        <v>5.253393291986615</v>
       </c>
       <c r="F31" t="n">
-        <v>6.320658298174203</v>
+        <v>7.564535676791892</v>
       </c>
       <c r="G31" t="n">
-        <v>8.869943929342963</v>
+        <v>10.05031633260319</v>
       </c>
       <c r="H31" t="n">
-        <v>9.562705723838805</v>
+        <v>10.64980419349562</v>
       </c>
       <c r="I31" t="n">
-        <v>10.3226038837888</v>
+        <v>11.29601998761823</v>
       </c>
       <c r="J31" t="n">
-        <v>7.389271214423448</v>
+        <v>8.23983301978604</v>
       </c>
     </row>
     <row r="32">
@@ -1430,28 +1430,28 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>15.07217570295413</v>
+        <v>15.21094040010614</v>
       </c>
       <c r="D32" t="n">
-        <v>12.03288708363925</v>
+        <v>12.20714795342732</v>
       </c>
       <c r="E32" t="n">
-        <v>5.315832241385409</v>
+        <v>5.423407663082269</v>
       </c>
       <c r="F32" t="n">
-        <v>7.668182206266428</v>
+        <v>7.857089465021894</v>
       </c>
       <c r="G32" t="n">
-        <v>10.15252693166781</v>
+        <v>10.3241692863512</v>
       </c>
       <c r="H32" t="n">
-        <v>10.74446020678617</v>
+        <v>10.89736399623108</v>
       </c>
       <c r="I32" t="n">
-        <v>11.38709496715789</v>
+        <v>11.52951951352704</v>
       </c>
       <c r="J32" t="n">
-        <v>8.321457338973888</v>
+        <v>8.455850916909972</v>
       </c>
     </row>
     <row r="33">
@@ -1462,28 +1462,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>14.09701344154568</v>
+        <v>15.178316305913</v>
       </c>
       <c r="D33" t="n">
-        <v>10.73248787795866</v>
+        <v>12.17840517060056</v>
       </c>
       <c r="E33" t="n">
-        <v>4.594827860203951</v>
+        <v>5.414644161900419</v>
       </c>
       <c r="F33" t="n">
-        <v>6.310067888192197</v>
+        <v>7.847438172966327</v>
       </c>
       <c r="G33" t="n">
-        <v>8.902121518041488</v>
+        <v>10.29830996557014</v>
       </c>
       <c r="H33" t="n">
-        <v>9.640824550223758</v>
+        <v>10.85814746086438</v>
       </c>
       <c r="I33" t="n">
-        <v>10.42955940568592</v>
+        <v>11.50060533661427</v>
       </c>
       <c r="J33" t="n">
-        <v>7.524084639997785</v>
+        <v>8.440121104452922</v>
       </c>
     </row>
     <row r="34">
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>15.12434584561695</v>
+        <v>14.52767335684115</v>
       </c>
       <c r="D34" t="n">
-        <v>12.07719902083374</v>
+        <v>11.31121449469155</v>
       </c>
       <c r="E34" t="n">
-        <v>5.361378807300796</v>
+        <v>4.922292984844628</v>
       </c>
       <c r="F34" t="n">
-        <v>7.72389929221705</v>
+        <v>6.925613147730046</v>
       </c>
       <c r="G34" t="n">
-        <v>10.19752413945202</v>
+        <v>9.454014989645604</v>
       </c>
       <c r="H34" t="n">
-        <v>10.78036254506631</v>
+        <v>10.10886455855093</v>
       </c>
       <c r="I34" t="n">
-        <v>11.44385582860834</v>
+        <v>10.84844471011285</v>
       </c>
       <c r="J34" t="n">
-        <v>8.402745294696517</v>
+        <v>7.885390403295513</v>
       </c>
     </row>
     <row r="35">
@@ -1526,28 +1526,28 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>14.17277063793316</v>
+        <v>14.36817344208797</v>
       </c>
       <c r="D35" t="n">
-        <v>10.87874603604213</v>
+        <v>11.13586823267447</v>
       </c>
       <c r="E35" t="n">
-        <v>4.650328092403367</v>
+        <v>4.796663438513791</v>
       </c>
       <c r="F35" t="n">
-        <v>6.456887669473957</v>
+        <v>6.725892259010608</v>
       </c>
       <c r="G35" t="n">
-        <v>9.041283213703267</v>
+        <v>9.287256669910422</v>
       </c>
       <c r="H35" t="n">
-        <v>9.766427624246059</v>
+        <v>9.981025315562082</v>
       </c>
       <c r="I35" t="n">
-        <v>10.50304081922119</v>
+        <v>10.69572193808593</v>
       </c>
       <c r="J35" t="n">
-        <v>7.543295502739509</v>
+        <v>7.711901160638066</v>
       </c>
     </row>
     <row r="36">
@@ -1558,28 +1558,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>15.0756961617025</v>
+        <v>14.55593611580596</v>
       </c>
       <c r="D36" t="n">
-        <v>11.97853662403773</v>
+        <v>11.39113187714566</v>
       </c>
       <c r="E36" t="n">
-        <v>5.300451913403986</v>
+        <v>4.961098269776356</v>
       </c>
       <c r="F36" t="n">
-        <v>7.590385477796374</v>
+        <v>7.029326410320143</v>
       </c>
       <c r="G36" t="n">
-        <v>10.10537139447234</v>
+        <v>9.534733908764792</v>
       </c>
       <c r="H36" t="n">
-        <v>10.73429498942917</v>
+        <v>10.16791420490979</v>
       </c>
       <c r="I36" t="n">
-        <v>11.39659371973056</v>
+        <v>10.88306019355388</v>
       </c>
       <c r="J36" t="n">
-        <v>8.355246998921219</v>
+        <v>7.899926609936102</v>
       </c>
     </row>
     <row r="37">
@@ -1590,28 +1590,28 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>15.14941104484997</v>
+        <v>15.12042491183</v>
       </c>
       <c r="D37" t="n">
-        <v>12.15384092331077</v>
+        <v>12.10154293457818</v>
       </c>
       <c r="E37" t="n">
-        <v>5.380718207254207</v>
+        <v>5.341137903808846</v>
       </c>
       <c r="F37" t="n">
-        <v>7.799026965737561</v>
+        <v>7.720157918883971</v>
       </c>
       <c r="G37" t="n">
-        <v>10.27280698712822</v>
+        <v>10.21961787011349</v>
       </c>
       <c r="H37" t="n">
-        <v>10.85447590142732</v>
+        <v>10.82558000230563</v>
       </c>
       <c r="I37" t="n">
-        <v>11.47230837078849</v>
+        <v>11.43904963313191</v>
       </c>
       <c r="J37" t="n">
-        <v>8.387179910347683</v>
+        <v>8.346411183557622</v>
       </c>
     </row>
     <row r="38">
@@ -1622,28 +1622,28 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>14.94340731529335</v>
+        <v>14.66445659887727</v>
       </c>
       <c r="D38" t="n">
-        <v>11.85495355913692</v>
+        <v>11.46837447826794</v>
       </c>
       <c r="E38" t="n">
-        <v>5.204809184655915</v>
+        <v>5.002751445456973</v>
       </c>
       <c r="F38" t="n">
-        <v>7.458505234539367</v>
+        <v>7.061701521498497</v>
       </c>
       <c r="G38" t="n">
-        <v>9.986272332004166</v>
+        <v>9.61199544196854</v>
       </c>
       <c r="H38" t="n">
-        <v>10.63100210231567</v>
+        <v>10.28895179878574</v>
       </c>
       <c r="I38" t="n">
-        <v>11.26756013126383</v>
+        <v>10.99120490741729</v>
       </c>
       <c r="J38" t="n">
-        <v>8.202294614798925</v>
+        <v>7.994178614552019</v>
       </c>
     </row>
     <row r="39">
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>14.23575381595754</v>
+        <v>14.62164121245585</v>
       </c>
       <c r="D39" t="n">
-        <v>11.00273188064414</v>
+        <v>11.40078650464903</v>
       </c>
       <c r="E39" t="n">
-        <v>4.722816649954663</v>
+        <v>4.966086331238556</v>
       </c>
       <c r="F39" t="n">
-        <v>6.614702524584017</v>
+        <v>6.989502483378995</v>
       </c>
       <c r="G39" t="n">
-        <v>9.157740535857569</v>
+        <v>9.544341253454311</v>
       </c>
       <c r="H39" t="n">
-        <v>9.836330466331523</v>
+        <v>10.22486439249774</v>
       </c>
       <c r="I39" t="n">
-        <v>10.56728892377621</v>
+        <v>10.94184082352565</v>
       </c>
       <c r="J39" t="n">
-        <v>7.602589608553147</v>
+        <v>7.954941888522765</v>
       </c>
     </row>
     <row r="40">
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>14.95768017817139</v>
+        <v>15.18022935563031</v>
       </c>
       <c r="D40" t="n">
-        <v>11.81154717642336</v>
+        <v>12.19990606678138</v>
       </c>
       <c r="E40" t="n">
-        <v>5.198191070902588</v>
+        <v>5.406090747390262</v>
       </c>
       <c r="F40" t="n">
-        <v>7.396331845298911</v>
+        <v>7.852490939043889</v>
       </c>
       <c r="G40" t="n">
-        <v>9.944804596921168</v>
+        <v>10.31615935988384</v>
       </c>
       <c r="H40" t="n">
-        <v>10.61174068205399</v>
+        <v>10.88572791820156</v>
       </c>
       <c r="I40" t="n">
-        <v>11.2793575532501</v>
+        <v>11.49937214391903</v>
       </c>
       <c r="J40" t="n">
-        <v>8.24386155389077</v>
+        <v>8.407758357290989</v>
       </c>
     </row>
     <row r="41">
@@ -1718,28 +1718,28 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>14.76280632760207</v>
+        <v>14.90300401222452</v>
       </c>
       <c r="D41" t="n">
-        <v>11.6388999570241</v>
+        <v>11.85302491481706</v>
       </c>
       <c r="E41" t="n">
-        <v>5.083990531361802</v>
+        <v>5.210379153312942</v>
       </c>
       <c r="F41" t="n">
-        <v>7.245871431586731</v>
+        <v>7.498695869525135</v>
       </c>
       <c r="G41" t="n">
-        <v>9.770592662562697</v>
+        <v>9.98246234395403</v>
       </c>
       <c r="H41" t="n">
-        <v>10.41240037367164</v>
+        <v>10.58270495949521</v>
       </c>
       <c r="I41" t="n">
-        <v>11.08356213605894</v>
+        <v>11.230188246202</v>
       </c>
       <c r="J41" t="n">
-        <v>8.05082828114414</v>
+        <v>8.178294068110192</v>
       </c>
     </row>
     <row r="42">
@@ -1750,28 +1750,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>14.7533273674961</v>
+        <v>14.86768535125493</v>
       </c>
       <c r="D42" t="n">
-        <v>11.62979129580084</v>
+        <v>11.81027529784922</v>
       </c>
       <c r="E42" t="n">
-        <v>5.076762295488459</v>
+        <v>5.182169377472447</v>
       </c>
       <c r="F42" t="n">
-        <v>7.235589825078059</v>
+        <v>7.451663139708779</v>
       </c>
       <c r="G42" t="n">
-        <v>9.764558791036263</v>
+        <v>9.938215889039897</v>
       </c>
       <c r="H42" t="n">
-        <v>10.41256808437221</v>
+        <v>10.53921710412024</v>
       </c>
       <c r="I42" t="n">
-        <v>11.07813454532509</v>
+        <v>11.19095546269314</v>
       </c>
       <c r="J42" t="n">
-        <v>8.042085874698051</v>
+        <v>8.140225265241266</v>
       </c>
     </row>
     <row r="43">
@@ -1782,28 +1782,28 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>14.71117322761119</v>
+        <v>14.50520800986398</v>
       </c>
       <c r="D43" t="n">
-        <v>11.57286390290581</v>
+        <v>11.28134162560256</v>
       </c>
       <c r="E43" t="n">
-        <v>5.060164954131857</v>
+        <v>4.902865544837235</v>
       </c>
       <c r="F43" t="n">
-        <v>7.198372068795133</v>
+        <v>6.89361444148271</v>
       </c>
       <c r="G43" t="n">
-        <v>9.707167493958966</v>
+        <v>9.426795548189309</v>
       </c>
       <c r="H43" t="n">
-        <v>10.3353951597732</v>
+        <v>10.08767057043792</v>
       </c>
       <c r="I43" t="n">
-        <v>11.03269942063568</v>
+        <v>10.82566643013368</v>
       </c>
       <c r="J43" t="n">
-        <v>8.026984844000374</v>
+        <v>7.860417038030022</v>
       </c>
     </row>
     <row r="44">
@@ -1814,28 +1814,28 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>14.76402315927063</v>
+        <v>14.26635624544005</v>
       </c>
       <c r="D44" t="n">
-        <v>11.64119776899752</v>
+        <v>10.98389946599526</v>
       </c>
       <c r="E44" t="n">
-        <v>5.088417202177384</v>
+        <v>4.720703392915383</v>
       </c>
       <c r="F44" t="n">
-        <v>7.256400678214317</v>
+        <v>6.567772801972534</v>
       </c>
       <c r="G44" t="n">
-        <v>9.778395444184243</v>
+        <v>9.141178743630451</v>
       </c>
       <c r="H44" t="n">
-        <v>10.42221471746116</v>
+        <v>9.851672866598808</v>
       </c>
       <c r="I44" t="n">
-        <v>11.08910008561065</v>
+        <v>10.59565538994685</v>
       </c>
       <c r="J44" t="n">
-        <v>8.055337802494655</v>
+        <v>7.642666781544998</v>
       </c>
     </row>
     <row r="45">
@@ -1846,28 +1846,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>14.72726473799356</v>
+        <v>15.12986566146883</v>
       </c>
       <c r="D45" t="n">
-        <v>11.5287841057734</v>
+        <v>12.09499562161342</v>
       </c>
       <c r="E45" t="n">
-        <v>5.026658522487292</v>
+        <v>5.346819131057608</v>
       </c>
       <c r="F45" t="n">
-        <v>7.098434451413077</v>
+        <v>7.715448085302252</v>
       </c>
       <c r="G45" t="n">
-        <v>9.666495777408038</v>
+        <v>10.21652880864476</v>
       </c>
       <c r="H45" t="n">
-        <v>10.35539822822107</v>
+        <v>10.82726004899075</v>
       </c>
       <c r="I45" t="n">
-        <v>11.04414163179839</v>
+        <v>11.45021238895296</v>
       </c>
       <c r="J45" t="n">
-        <v>8.026424189049267</v>
+        <v>8.368671959642192</v>
       </c>
     </row>
     <row r="46">
@@ -1878,28 +1878,28 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>14.35692559217129</v>
+        <v>15.29987002502992</v>
       </c>
       <c r="D46" t="n">
-        <v>11.05668953973588</v>
+        <v>12.28141556148403</v>
       </c>
       <c r="E46" t="n">
-        <v>4.765636732610321</v>
+        <v>5.461061632761933</v>
       </c>
       <c r="F46" t="n">
-        <v>6.617604226589823</v>
+        <v>7.902075426395736</v>
       </c>
       <c r="G46" t="n">
-        <v>9.210721692549681</v>
+        <v>10.39883298058016</v>
       </c>
       <c r="H46" t="n">
-        <v>9.937544929226908</v>
+        <v>11.00169021029833</v>
       </c>
       <c r="I46" t="n">
-        <v>10.68240555784918</v>
+        <v>11.61634961085625</v>
       </c>
       <c r="J46" t="n">
-        <v>7.727242970542727</v>
+        <v>8.523678766267389</v>
       </c>
     </row>
     <row r="47">
@@ -1910,28 +1910,28 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>14.65970981017523</v>
+        <v>13.89189157537685</v>
       </c>
       <c r="D47" t="n">
-        <v>11.48581919735633</v>
+        <v>10.57546765289459</v>
       </c>
       <c r="E47" t="n">
-        <v>5.015334657685123</v>
+        <v>4.491223482259562</v>
       </c>
       <c r="F47" t="n">
-        <v>7.099967471562501</v>
+        <v>6.194606410686167</v>
       </c>
       <c r="G47" t="n">
-        <v>9.624968809980727</v>
+        <v>8.745102366858461</v>
       </c>
       <c r="H47" t="n">
-        <v>10.27316894084184</v>
+        <v>9.443788366777937</v>
       </c>
       <c r="I47" t="n">
-        <v>10.98333004790714</v>
+        <v>10.23082064642473</v>
       </c>
       <c r="J47" t="n">
-        <v>7.992051725273945</v>
+        <v>7.328492229160924</v>
       </c>
     </row>
     <row r="48">
@@ -1942,28 +1942,28 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>14.75495534614777</v>
+        <v>15.13637894228477</v>
       </c>
       <c r="D48" t="n">
-        <v>11.63804921146095</v>
+        <v>12.0859004337301</v>
       </c>
       <c r="E48" t="n">
-        <v>5.089298611579853</v>
+        <v>5.351775695538326</v>
       </c>
       <c r="F48" t="n">
-        <v>7.262945463502164</v>
+        <v>7.705592107109719</v>
       </c>
       <c r="G48" t="n">
-        <v>9.775929985968336</v>
+        <v>10.20330504092685</v>
       </c>
       <c r="H48" t="n">
-        <v>10.41148529053628</v>
+        <v>10.80680136883929</v>
       </c>
       <c r="I48" t="n">
-        <v>11.08144145008453</v>
+        <v>11.45333061913053</v>
       </c>
       <c r="J48" t="n">
-        <v>8.051793317644762</v>
+        <v>8.392629785907856</v>
       </c>
     </row>
     <row r="49">
@@ -1974,28 +1974,28 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>15.32934042788397</v>
+        <v>15.26358831035076</v>
       </c>
       <c r="D49" t="n">
-        <v>12.33852583587156</v>
+        <v>12.24800380545647</v>
       </c>
       <c r="E49" t="n">
-        <v>5.488383898030603</v>
+        <v>5.433689810563582</v>
       </c>
       <c r="F49" t="n">
-        <v>7.963448989140271</v>
+        <v>7.862680956502345</v>
       </c>
       <c r="G49" t="n">
-        <v>10.45387677689506</v>
+        <v>10.36609930372186</v>
       </c>
       <c r="H49" t="n">
-        <v>11.04900325420423</v>
+        <v>10.97621832726196</v>
       </c>
       <c r="I49" t="n">
-        <v>11.64963677146161</v>
+        <v>11.58194340741381</v>
       </c>
       <c r="J49" t="n">
-        <v>8.545209122092391</v>
+        <v>8.481534155322171</v>
       </c>
     </row>
     <row r="50">
@@ -2006,28 +2006,28 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>14.58890538997835</v>
+        <v>14.4662762488591</v>
       </c>
       <c r="D50" t="n">
-        <v>11.43500693347305</v>
+        <v>11.19172535978593</v>
       </c>
       <c r="E50" t="n">
-        <v>4.970191166799637</v>
+        <v>4.842802928506553</v>
       </c>
       <c r="F50" t="n">
-        <v>7.053623557472517</v>
+        <v>6.760510394656259</v>
       </c>
       <c r="G50" t="n">
-        <v>9.573804169289462</v>
+        <v>9.34861874883763</v>
       </c>
       <c r="H50" t="n">
-        <v>10.21644022069914</v>
+        <v>10.07338844379465</v>
       </c>
       <c r="I50" t="n">
-        <v>10.91098444081904</v>
+        <v>10.79399994564033</v>
       </c>
       <c r="J50" t="n">
-        <v>7.902761506016319</v>
+        <v>7.81656237184916</v>
       </c>
     </row>
     <row r="51">
@@ -2038,28 +2038,28 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>14.64240374625324</v>
+        <v>14.17574139099834</v>
       </c>
       <c r="D51" t="n">
-        <v>11.50133948769062</v>
+        <v>10.8495753474483</v>
       </c>
       <c r="E51" t="n">
-        <v>5.024140726036368</v>
+        <v>4.654523348069512</v>
       </c>
       <c r="F51" t="n">
-        <v>7.142706265809021</v>
+        <v>6.430527280328384</v>
       </c>
       <c r="G51" t="n">
-        <v>9.642110373723289</v>
+        <v>9.010183493842415</v>
       </c>
       <c r="H51" t="n">
-        <v>10.26722259133905</v>
+        <v>9.729504474046582</v>
       </c>
       <c r="I51" t="n">
-        <v>10.97043413054819</v>
+        <v>10.50383374221525</v>
       </c>
       <c r="J51" t="n">
-        <v>7.975838955203869</v>
+        <v>7.580687866777453</v>
       </c>
     </row>
     <row r="52">
@@ -2070,28 +2070,28 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>14.56890559993539</v>
+        <v>15.25601493425405</v>
       </c>
       <c r="D52" t="n">
-        <v>11.3695147784875</v>
+        <v>12.21025165344454</v>
       </c>
       <c r="E52" t="n">
-        <v>4.953638702580652</v>
+        <v>5.420582963659322</v>
       </c>
       <c r="F52" t="n">
-        <v>6.987776125604666</v>
+        <v>7.81597011876809</v>
       </c>
       <c r="G52" t="n">
-        <v>9.518566528195636</v>
+        <v>10.32283354967806</v>
       </c>
       <c r="H52" t="n">
-        <v>10.18106207331714</v>
+        <v>10.93100943507333</v>
       </c>
       <c r="I52" t="n">
-        <v>10.89931895150596</v>
+        <v>11.56501026373837</v>
       </c>
       <c r="J52" t="n">
-        <v>7.921412190537515</v>
+        <v>8.486174366079281</v>
       </c>
     </row>
     <row r="53">
@@ -2102,28 +2102,28 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>14.47338402465425</v>
+        <v>14.93175536802594</v>
       </c>
       <c r="D53" t="n">
-        <v>11.26789446707927</v>
+        <v>11.89625734990547</v>
       </c>
       <c r="E53" t="n">
-        <v>4.88278657464538</v>
+        <v>5.238250218772481</v>
       </c>
       <c r="F53" t="n">
-        <v>6.87724798950171</v>
+        <v>7.554921733317868</v>
       </c>
       <c r="G53" t="n">
-        <v>9.412222763951004</v>
+        <v>10.02098267507125</v>
       </c>
       <c r="H53" t="n">
-        <v>10.0746046003558</v>
+        <v>10.59993792601533</v>
       </c>
       <c r="I53" t="n">
-        <v>10.79617853178272</v>
+        <v>11.25286865164342</v>
       </c>
       <c r="J53" t="n">
-        <v>7.816261398162585</v>
+        <v>8.202589098719525</v>
       </c>
     </row>
     <row r="54">
@@ -2134,28 +2134,28 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>14.08605244343511</v>
+        <v>15.11073438392076</v>
       </c>
       <c r="D54" t="n">
-        <v>10.75880049955302</v>
+        <v>12.11543389890017</v>
       </c>
       <c r="E54" t="n">
-        <v>4.599680232322497</v>
+        <v>5.368418884741077</v>
       </c>
       <c r="F54" t="n">
-        <v>6.350992967692095</v>
+        <v>7.783642066468739</v>
       </c>
       <c r="G54" t="n">
-        <v>8.927022756182543</v>
+        <v>10.23296969907497</v>
       </c>
       <c r="H54" t="n">
-        <v>9.649132931971202</v>
+        <v>10.78924434385415</v>
       </c>
       <c r="I54" t="n">
-        <v>10.41993616273471</v>
+        <v>11.42907716951565</v>
       </c>
       <c r="J54" t="n">
-        <v>7.49755484094233</v>
+        <v>8.363333890373555</v>
       </c>
     </row>
     <row r="55">
@@ -2166,28 +2166,28 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>15.02455908919608</v>
+        <v>14.49289503742019</v>
       </c>
       <c r="D55" t="n">
-        <v>11.95400706297412</v>
+        <v>11.28708746363369</v>
       </c>
       <c r="E55" t="n">
-        <v>5.289419110917374</v>
+        <v>4.900318816006173</v>
       </c>
       <c r="F55" t="n">
-        <v>7.599352563248499</v>
+        <v>6.900314287035473</v>
       </c>
       <c r="G55" t="n">
-        <v>10.07720111949369</v>
+        <v>9.430684508943401</v>
       </c>
       <c r="H55" t="n">
-        <v>10.66584091790717</v>
+        <v>10.08775940838596</v>
       </c>
       <c r="I55" t="n">
-        <v>11.34193317543888</v>
+        <v>10.81752632954876</v>
       </c>
       <c r="J55" t="n">
-        <v>8.31181827992638</v>
+        <v>7.846790237514392</v>
       </c>
     </row>
     <row r="56">
@@ -2198,28 +2198,28 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>13.81448021663705</v>
+        <v>15.0082782329722</v>
       </c>
       <c r="D56" t="n">
-        <v>10.48982859034944</v>
+        <v>11.92441010390006</v>
       </c>
       <c r="E56" t="n">
-        <v>4.442755657954897</v>
+        <v>5.270687510824707</v>
       </c>
       <c r="F56" t="n">
-        <v>6.117867152017387</v>
+        <v>7.562442346109484</v>
       </c>
       <c r="G56" t="n">
-        <v>8.663837197700099</v>
+        <v>10.04745204513021</v>
       </c>
       <c r="H56" t="n">
-        <v>9.36128421987171</v>
+        <v>10.64267417868837</v>
       </c>
       <c r="I56" t="n">
-        <v>10.15505042307847</v>
+        <v>11.32161048655796</v>
       </c>
       <c r="J56" t="n">
-        <v>7.260625697101482</v>
+        <v>8.291560726623491</v>
       </c>
     </row>
     <row r="57">
@@ -2230,28 +2230,28 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>14.52909937953438</v>
+        <v>14.68918678614518</v>
       </c>
       <c r="D57" t="n">
-        <v>11.36420472759757</v>
+        <v>11.54189224625015</v>
       </c>
       <c r="E57" t="n">
-        <v>4.934315475756144</v>
+        <v>5.04729219090602</v>
       </c>
       <c r="F57" t="n">
-        <v>6.989000428785196</v>
+        <v>7.173053399079365</v>
       </c>
       <c r="G57" t="n">
-        <v>9.504673197714451</v>
+        <v>9.683853543628645</v>
       </c>
       <c r="H57" t="n">
-        <v>10.14476293446639</v>
+        <v>10.32054004956228</v>
       </c>
       <c r="I57" t="n">
-        <v>10.85267905375619</v>
+        <v>11.01758121550878</v>
       </c>
       <c r="J57" t="n">
-        <v>7.859328494843582</v>
+        <v>8.01655525358292</v>
       </c>
     </row>
     <row r="58">
@@ -2262,28 +2262,28 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>14.1962920651577</v>
+        <v>14.09505275939703</v>
       </c>
       <c r="D58" t="n">
-        <v>10.91404214405629</v>
+        <v>10.81435319190524</v>
       </c>
       <c r="E58" t="n">
-        <v>4.689908964842663</v>
+        <v>4.611040205711468</v>
       </c>
       <c r="F58" t="n">
-        <v>6.52587835486703</v>
+        <v>6.408135526159954</v>
       </c>
       <c r="G58" t="n">
-        <v>9.076324227285223</v>
+        <v>8.977020044791219</v>
       </c>
       <c r="H58" t="n">
-        <v>9.769003001887533</v>
+        <v>9.688026471046507</v>
       </c>
       <c r="I58" t="n">
-        <v>10.52761601466339</v>
+        <v>10.42761055588637</v>
       </c>
       <c r="J58" t="n">
-        <v>7.591593862239367</v>
+        <v>7.473071393531725</v>
       </c>
     </row>
     <row r="59">
@@ -2294,28 +2294,28 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>14.16584720851495</v>
+        <v>14.78530002570963</v>
       </c>
       <c r="D59" t="n">
-        <v>10.91180374409671</v>
+        <v>11.6549027635439</v>
       </c>
       <c r="E59" t="n">
-        <v>4.678647488447126</v>
+        <v>5.109823577959989</v>
       </c>
       <c r="F59" t="n">
-        <v>6.52884488069065</v>
+        <v>7.283220233886466</v>
       </c>
       <c r="G59" t="n">
-        <v>9.071050160448102</v>
+        <v>9.788894157970216</v>
       </c>
       <c r="H59" t="n">
-        <v>9.7531164541134</v>
+        <v>10.41365227881831</v>
       </c>
       <c r="I59" t="n">
-        <v>10.50081166236405</v>
+        <v>11.1044061561388</v>
       </c>
       <c r="J59" t="n">
-        <v>7.555906241019458</v>
+        <v>8.090571533322386</v>
       </c>
     </row>
     <row r="60">
@@ -2326,28 +2326,28 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>14.58526999467476</v>
+        <v>14.01750899273135</v>
       </c>
       <c r="D60" t="n">
-        <v>11.41661276053194</v>
+        <v>10.65968765342155</v>
       </c>
       <c r="E60" t="n">
-        <v>4.980143847591136</v>
+        <v>4.553568015367707</v>
       </c>
       <c r="F60" t="n">
-        <v>7.052265222590477</v>
+        <v>6.254884175954728</v>
       </c>
       <c r="G60" t="n">
-        <v>9.560607187214099</v>
+        <v>8.830680399879709</v>
       </c>
       <c r="H60" t="n">
-        <v>10.19700474427976</v>
+        <v>9.554609417761119</v>
       </c>
       <c r="I60" t="n">
-        <v>10.91456965861305</v>
+        <v>10.35148797982145</v>
       </c>
       <c r="J60" t="n">
-        <v>7.935189517354199</v>
+        <v>7.455362438457551</v>
       </c>
     </row>
     <row r="61">
@@ -2358,28 +2358,28 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>14.94266496809773</v>
+        <v>14.9202409372869</v>
       </c>
       <c r="D61" t="n">
-        <v>11.87758861274009</v>
+        <v>11.807542342771</v>
       </c>
       <c r="E61" t="n">
-        <v>5.236472316135943</v>
+        <v>5.212130973161112</v>
       </c>
       <c r="F61" t="n">
-        <v>7.526917843544775</v>
+        <v>7.446825418809805</v>
       </c>
       <c r="G61" t="n">
-        <v>10.00331490664327</v>
+        <v>9.938560107703855</v>
       </c>
       <c r="H61" t="n">
-        <v>10.59275528665849</v>
+        <v>10.54817785994559</v>
       </c>
       <c r="I61" t="n">
-        <v>11.26165828222979</v>
+        <v>11.24191855599865</v>
       </c>
       <c r="J61" t="n">
-        <v>8.225674185573151</v>
+        <v>8.233276224659651</v>
       </c>
     </row>
     <row r="62">
@@ -2390,28 +2390,28 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>15.35685443420693</v>
+        <v>14.13765170828958</v>
       </c>
       <c r="D62" t="n">
-        <v>12.37831065376392</v>
+        <v>10.77490260009722</v>
       </c>
       <c r="E62" t="n">
-        <v>5.505835524388291</v>
+        <v>4.612717954746885</v>
       </c>
       <c r="F62" t="n">
-        <v>7.998516146394576</v>
+        <v>6.339758611933985</v>
       </c>
       <c r="G62" t="n">
-        <v>10.48806742605481</v>
+        <v>8.944215925336934</v>
       </c>
       <c r="H62" t="n">
-        <v>11.07749515362471</v>
+        <v>9.695425554556506</v>
       </c>
       <c r="I62" t="n">
-        <v>11.67323120847304</v>
+        <v>10.46867575423876</v>
       </c>
       <c r="J62" t="n">
-        <v>8.560853140439143</v>
+        <v>7.54699115692487</v>
       </c>
     </row>
     <row r="63">
@@ -2422,28 +2422,28 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>14.82865392785068</v>
+        <v>14.27017007280262</v>
       </c>
       <c r="D63" t="n">
-        <v>11.71860786232752</v>
+        <v>10.99791166599823</v>
       </c>
       <c r="E63" t="n">
-        <v>5.125860350450796</v>
+        <v>4.744029649113127</v>
       </c>
       <c r="F63" t="n">
-        <v>7.321381325656025</v>
+        <v>6.610945465717193</v>
       </c>
       <c r="G63" t="n">
-        <v>9.849997292850105</v>
+        <v>9.153069080502846</v>
       </c>
       <c r="H63" t="n">
-        <v>10.49516030544634</v>
+        <v>9.831316924739468</v>
       </c>
       <c r="I63" t="n">
-        <v>11.15035635367089</v>
+        <v>10.59842519070196</v>
       </c>
       <c r="J63" t="n">
-        <v>8.101951169926908</v>
+        <v>7.668245829929612</v>
       </c>
     </row>
     <row r="64">
@@ -2454,28 +2454,28 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>14.29264091456033</v>
+        <v>14.90479623858931</v>
       </c>
       <c r="D64" t="n">
-        <v>11.05123424898892</v>
+        <v>11.85694568895212</v>
       </c>
       <c r="E64" t="n">
-        <v>4.763529455536275</v>
+        <v>5.201559970025168</v>
       </c>
       <c r="F64" t="n">
-        <v>6.666195681632358</v>
+        <v>7.485870615944362</v>
       </c>
       <c r="G64" t="n">
-        <v>9.207404585729531</v>
+        <v>9.982645235114939</v>
       </c>
       <c r="H64" t="n">
-        <v>9.88598478436198</v>
+        <v>10.5923947928926</v>
       </c>
       <c r="I64" t="n">
-        <v>10.62638748714942</v>
+        <v>11.2290231471639</v>
       </c>
       <c r="J64" t="n">
-        <v>7.673195795576739</v>
+        <v>8.163808860825869</v>
       </c>
     </row>
     <row r="65">
@@ -2486,28 +2486,28 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>14.48059864825725</v>
+        <v>13.95680554619398</v>
       </c>
       <c r="D65" t="n">
-        <v>11.30578364236641</v>
+        <v>10.68918073142954</v>
       </c>
       <c r="E65" t="n">
-        <v>4.912111795123399</v>
+        <v>4.544345315842658</v>
       </c>
       <c r="F65" t="n">
-        <v>6.945221784895831</v>
+        <v>6.319179058826689</v>
       </c>
       <c r="G65" t="n">
-        <v>9.451625910923884</v>
+        <v>8.85100642860928</v>
       </c>
       <c r="H65" t="n">
-        <v>10.087338706865</v>
+        <v>9.524619504902095</v>
       </c>
       <c r="I65" t="n">
-        <v>10.81113434153053</v>
+        <v>10.28982178724741</v>
       </c>
       <c r="J65" t="n">
-        <v>7.838714007299917</v>
+        <v>7.361317095268502</v>
       </c>
     </row>
     <row r="66">
@@ -2518,28 +2518,28 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>15.00563999876354</v>
+        <v>15.12924765352598</v>
       </c>
       <c r="D66" t="n">
-        <v>11.96197266703236</v>
+        <v>12.16060138418602</v>
       </c>
       <c r="E66" t="n">
-        <v>5.262506663246997</v>
+        <v>5.382896462968101</v>
       </c>
       <c r="F66" t="n">
-        <v>7.583177191621756</v>
+        <v>7.8280381786638</v>
       </c>
       <c r="G66" t="n">
-        <v>10.08485784528903</v>
+        <v>10.2797175393399</v>
       </c>
       <c r="H66" t="n">
-        <v>10.69656811426107</v>
+        <v>10.83991287908011</v>
       </c>
       <c r="I66" t="n">
-        <v>11.32529048480638</v>
+        <v>11.45305123226722</v>
       </c>
       <c r="J66" t="n">
-        <v>8.248668750439686</v>
+        <v>8.364180417015202</v>
       </c>
     </row>
     <row r="67">
@@ -2550,28 +2550,28 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>14.22076072965033</v>
+        <v>14.30527075474113</v>
       </c>
       <c r="D67" t="n">
-        <v>10.94143937390702</v>
+        <v>11.05648805301188</v>
       </c>
       <c r="E67" t="n">
-        <v>4.683413116840966</v>
+        <v>4.757601948252077</v>
       </c>
       <c r="F67" t="n">
-        <v>6.51599206683276</v>
+        <v>6.654051263812588</v>
       </c>
       <c r="G67" t="n">
-        <v>9.098837558018101</v>
+        <v>9.210866043742488</v>
       </c>
       <c r="H67" t="n">
-        <v>9.818392494128171</v>
+        <v>9.902251307133154</v>
       </c>
       <c r="I67" t="n">
-        <v>10.54936495133365</v>
+        <v>10.633687667076</v>
       </c>
       <c r="J67" t="n">
-        <v>7.582626298884223</v>
+        <v>7.667216884894605</v>
       </c>
     </row>
     <row r="68">
@@ -2582,28 +2582,28 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>15.05510456187961</v>
+        <v>13.97793136395501</v>
       </c>
       <c r="D68" t="n">
-        <v>12.0805893483655</v>
+        <v>10.64671044027017</v>
       </c>
       <c r="E68" t="n">
-        <v>5.333284677025061</v>
+        <v>4.522902939377668</v>
       </c>
       <c r="F68" t="n">
-        <v>7.746937355474422</v>
+        <v>6.234558130471351</v>
       </c>
       <c r="G68" t="n">
-        <v>10.19405049336817</v>
+        <v>8.815183616909554</v>
       </c>
       <c r="H68" t="n">
-        <v>10.74468594556989</v>
+        <v>9.541751727145876</v>
       </c>
       <c r="I68" t="n">
-        <v>11.37254846088059</v>
+        <v>10.30955424209516</v>
       </c>
       <c r="J68" t="n">
-        <v>8.293840151404677</v>
+        <v>7.382582039018994</v>
       </c>
     </row>
     <row r="69">
@@ -2614,28 +2614,28 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>14.74267039685113</v>
+        <v>14.28189560352462</v>
       </c>
       <c r="D69" t="n">
-        <v>11.57767639129574</v>
+        <v>11.00717009899317</v>
       </c>
       <c r="E69" t="n">
-        <v>5.068800189667496</v>
+        <v>4.722930144525235</v>
       </c>
       <c r="F69" t="n">
-        <v>7.187447587198829</v>
+        <v>6.582717489326207</v>
       </c>
       <c r="G69" t="n">
-        <v>9.716930183258036</v>
+        <v>9.165797115314447</v>
       </c>
       <c r="H69" t="n">
-        <v>10.37004285429652</v>
+        <v>9.886660305225213</v>
       </c>
       <c r="I69" t="n">
-        <v>11.06781958177642</v>
+        <v>10.60957480906718</v>
       </c>
       <c r="J69" t="n">
-        <v>8.065325888030381</v>
+        <v>7.63435211047093</v>
       </c>
     </row>
     <row r="70">
@@ -2646,28 +2646,28 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>15.13622011591353</v>
+        <v>14.05089437350254</v>
       </c>
       <c r="D70" t="n">
-        <v>12.07963989352442</v>
+        <v>10.74025300455928</v>
       </c>
       <c r="E70" t="n">
-        <v>5.342647296030034</v>
+        <v>4.569852063650587</v>
       </c>
       <c r="F70" t="n">
-        <v>7.689186656233269</v>
+        <v>6.322707472462072</v>
       </c>
       <c r="G70" t="n">
-        <v>10.2005938893072</v>
+        <v>8.904342701992332</v>
       </c>
       <c r="H70" t="n">
-        <v>10.82087185555483</v>
+        <v>9.627860534638934</v>
       </c>
       <c r="I70" t="n">
-        <v>11.45446170629661</v>
+        <v>10.38003660386</v>
       </c>
       <c r="J70" t="n">
-        <v>8.382038010207745</v>
+        <v>7.435222230502945</v>
       </c>
     </row>
     <row r="71">
@@ -2678,28 +2678,28 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>14.34048231695648</v>
+        <v>15.17838980661112</v>
       </c>
       <c r="D71" t="n">
-        <v>11.14018109928057</v>
+        <v>12.17674740151857</v>
       </c>
       <c r="E71" t="n">
-        <v>4.800424157883302</v>
+        <v>5.386552047106918</v>
       </c>
       <c r="F71" t="n">
-        <v>6.755706774007942</v>
+        <v>7.804394291125683</v>
       </c>
       <c r="G71" t="n">
-        <v>9.288684982758335</v>
+        <v>10.29025640613813</v>
       </c>
       <c r="H71" t="n">
-        <v>9.952188623615074</v>
+        <v>10.87865799972071</v>
       </c>
       <c r="I71" t="n">
-        <v>10.67131782869199</v>
+        <v>11.4924427683172</v>
       </c>
       <c r="J71" t="n">
-        <v>7.693981391602407</v>
+        <v>8.396799732716465</v>
       </c>
     </row>
   </sheetData>
